--- a/APP公共用例.xlsx
+++ b/APP公共用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svn\offerplus\DOC\测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7E93635F-5838-44ED-B728-8DFED9652FD9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B5ECB4FE-D8C0-4684-91E6-B638B3F2817D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="1" xr2:uid="{E98B5F69-0CC4-46C6-87AA-BA597DAB75F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{E98B5F69-0CC4-46C6-87AA-BA597DAB75F5}"/>
   </bookViews>
   <sheets>
     <sheet name="搜索框&amp;Select模式" sheetId="1" r:id="rId1"/>
@@ -948,7 +948,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1032,6 +1032,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1399,24 +1408,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A46530-90F3-41DD-9564-216FCED4D102}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="21"/>
-    <col min="2" max="2" width="14.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.75" style="21" customWidth="1"/>
-    <col min="5" max="5" width="66.875" style="21" customWidth="1"/>
-    <col min="6" max="10" width="8.875" style="21"/>
-    <col min="11" max="11" width="11.375" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="21"/>
+    <col min="1" max="1" width="8.88671875" style="21"/>
+    <col min="2" max="2" width="14.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.77734375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="66.88671875" style="21" customWidth="1"/>
+    <col min="6" max="10" width="8.88671875" style="21"/>
+    <col min="11" max="11" width="11.33203125" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="20" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="20" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1458,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="29" t="s">
         <v>9</v>
@@ -1469,7 +1478,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29" t="s">
@@ -1489,7 +1498,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -1507,7 +1516,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -1525,7 +1534,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -1540,7 +1549,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -1555,7 +1564,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -1570,7 +1579,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="78" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -1585,7 +1594,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29" t="s">
@@ -1602,7 +1611,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -1617,7 +1626,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -1632,9 +1641,9 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1649,9 +1658,9 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="13" t="s">
         <v>11</v>
       </c>
@@ -1664,9 +1673,9 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="29" t="s">
         <v>24</v>
       </c>
@@ -1679,9 +1688,9 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="29"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -1690,9 +1699,11 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="32" t="s">
+        <v>151</v>
+      </c>
       <c r="C17" s="29" t="s">
         <v>81</v>
       </c>
@@ -1707,9 +1718,9 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="29"/>
       <c r="D18" s="13" t="s">
         <v>53</v>
@@ -1722,9 +1733,9 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="29" t="s">
         <v>160</v>
       </c>
@@ -1739,9 +1750,9 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="29"/>
       <c r="D20" s="13" t="s">
         <v>53</v>
@@ -1754,9 +1765,9 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="29" t="s">
         <v>54</v>
       </c>
@@ -1771,9 +1782,9 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="29"/>
       <c r="D22" s="13" t="s">
         <v>58</v>
@@ -1786,9 +1797,9 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="29" t="s">
         <v>55</v>
       </c>
@@ -1803,9 +1814,9 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="29"/>
       <c r="D24" s="13" t="s">
         <v>60</v>
@@ -1818,9 +1829,9 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
@@ -1835,9 +1846,9 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="25" t="s">
         <v>152</v>
       </c>
@@ -1852,9 +1863,9 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="26"/>
       <c r="D27" s="15" t="s">
         <v>159</v>
@@ -1867,11 +1878,9 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
-        <v>151</v>
-      </c>
+      <c r="B28" s="33"/>
       <c r="C28" s="13" t="s">
         <v>36</v>
       </c>
@@ -1886,9 +1895,9 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="29" t="s">
         <v>39</v>
       </c>
@@ -1903,9 +1912,9 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="29"/>
       <c r="D30" s="13" t="s">
         <v>37</v>
@@ -1918,9 +1927,9 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="29" t="s">
         <v>42</v>
       </c>
@@ -1935,9 +1944,9 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="29"/>
       <c r="D32" s="13" t="s">
         <v>44</v>
@@ -1950,9 +1959,9 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="13" t="s">
         <v>46</v>
       </c>
@@ -1967,9 +1976,9 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="13" t="s">
         <v>49</v>
       </c>
@@ -1984,9 +1993,9 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="13" t="s">
         <v>62</v>
       </c>
@@ -2001,9 +2010,9 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="29" t="s">
         <v>65</v>
       </c>
@@ -2018,9 +2027,9 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="29"/>
       <c r="D37" s="13" t="s">
         <v>67</v>
@@ -2033,9 +2042,9 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="25" t="s">
         <v>70</v>
       </c>
@@ -2050,9 +2059,9 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="26"/>
       <c r="D39" s="13" t="s">
         <v>162</v>
@@ -2065,9 +2074,9 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="13" t="s">
         <v>72</v>
       </c>
@@ -2082,9 +2091,9 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="13" t="s">
         <v>75</v>
       </c>
@@ -2099,9 +2108,9 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="25" t="s">
         <v>152</v>
       </c>
@@ -2116,9 +2125,9 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="26"/>
       <c r="D43" s="15" t="s">
         <v>153</v>
@@ -2131,9 +2140,9 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
     </row>
-    <row r="44" spans="1:9" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="27" t="s">
         <v>165</v>
       </c>
@@ -2148,9 +2157,9 @@
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
     </row>
-    <row r="45" spans="1:9" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="28"/>
       <c r="D45" s="14" t="s">
         <v>168</v>
@@ -2163,7 +2172,7 @@
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -2174,7 +2183,7 @@
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -2185,7 +2194,7 @@
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -2196,7 +2205,7 @@
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -2207,7 +2216,7 @@
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -2218,7 +2227,7 @@
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -2229,7 +2238,7 @@
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -2240,7 +2249,7 @@
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -2251,7 +2260,7 @@
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
@@ -2262,7 +2271,7 @@
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
@@ -2273,7 +2282,7 @@
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
@@ -2284,7 +2293,7 @@
       <c r="H56" s="24"/>
       <c r="I56" s="24"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -2295,7 +2304,7 @@
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
@@ -2306,7 +2315,7 @@
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -2317,7 +2326,7 @@
       <c r="H59" s="24"/>
       <c r="I59" s="24"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -2330,7 +2339,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I42" xr:uid="{AD879126-6C2B-49B9-8B13-A62EF7C6AC97}"/>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="B17:B45"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C26:C27"/>
@@ -2346,6 +2356,7 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2357,21 +2368,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA98D4-4B08-40A3-AEBF-5F43784834D0}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.75" customWidth="1"/>
-    <col min="5" max="5" width="66.875" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.77734375" customWidth="1"/>
+    <col min="5" max="5" width="66.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2415,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>84</v>
@@ -2423,7 +2434,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2436,7 +2447,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2449,7 +2460,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2464,7 +2475,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2477,7 +2488,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2490,7 +2501,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2503,7 +2514,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2516,7 +2527,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2529,7 +2540,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2544,7 +2555,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2557,7 +2568,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2570,7 +2581,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2583,7 +2594,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2596,7 +2607,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2609,7 +2620,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2624,7 +2635,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2637,7 +2648,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2650,7 +2661,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2663,7 +2674,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2676,7 +2687,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2689,7 +2700,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2704,7 +2715,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2719,7 +2730,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2732,7 +2743,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2745,7 +2756,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2760,7 +2771,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2773,7 +2784,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2786,7 +2797,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2799,7 +2810,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2814,7 +2825,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2850,21 +2861,21 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="13.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="34.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" style="2" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
     <col min="7" max="7" width="33" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.21875" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
@@ -2893,7 +2904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>130</v>
       </c>
@@ -2916,37 +2927,37 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D5" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="D6" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="D7" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="114" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="D8" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="138" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
         <v>143</v>
       </c>
@@ -2966,16 +2977,16 @@
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.75" customWidth="1"/>
-    <col min="5" max="5" width="66.875" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.77734375" customWidth="1"/>
+    <col min="5" max="5" width="66.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3008,7 +3019,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="17" t="s">
         <v>148</v>

--- a/APP公共用例.xlsx
+++ b/APP公共用例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\DOC\测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B5ECB4FE-D8C0-4684-91E6-B638B3F2817D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{234D4513-6E40-4D91-8E5D-800FEE6FEE75}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{E98B5F69-0CC4-46C6-87AA-BA597DAB75F5}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Remark栏!$A$1:$I$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">标题栏下拉列表!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搜索框&amp;Select模式'!$A$1:$I$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搜索框&amp;Select模式'!$A$1:$I$44</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="183">
   <si>
     <t>模块</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -262,10 +262,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>搜索页cancel按钮功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1、在搜索页进入详情页选中A，回到搜索页</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -362,15 +358,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>new quotation/order时select下搜索页Select按钮功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>回到select页并将A的取消选中带过来</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回到select页并将A的选中带过来</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -684,19 +672,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>select下列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>列表加载和刷新</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>new quotation/order时直接进入select下列表这种</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上拉加载，下拉刷新</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -718,10 +698,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>禁止上拉加载，下拉刷新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>my product各列表进入select下的搜索页这种</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -731,11 +707,6 @@
   </si>
   <si>
     <t>my products各列表select下搜索页的OK按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、回到上页，放弃在搜索页所做的选择修改，即AB还是选中，C没选，再次进
-2、再次进入搜索页搜索C也是没选中状态</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -784,12 +755,130 @@
 4.拍照后的缩略图片大小为定制，保持当前不变</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>可上拉加载，无下拉刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>select下列表</t>
+  </si>
+  <si>
+    <t>select的搜索页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>new quotation/order时select下搜索页OK按钮功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、回到上页，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在搜索页所做的选择修改，即A没选，BC选中
+2、再次进入搜索页搜索C是选中状态</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索页列表加载和刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、回到上页，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放弃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在搜索页所做的选择修改，即AB还是选中，C没选，再次进
+2、再次进入搜索页搜索C也是没选中状态</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止上拉加载和下拉刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨分类选择产品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>by time选择A产品，切换到by tag/supplier/member列表的二级列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、如果二级列表中A，A则应该是选中状态
+2、切换到其他分类后右下角OK按钮数字不变，点击OK仍能将选中的产品带回new页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>new quotation/order时select下搜索页cancel按钮功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>my products各列表select下搜索页的cancel按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索页的选中在跨页的新数据中显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到select页并将A的选中带过来，如果select页中原来有A就勾选A，如果没有就将A附于列表末尾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>new inquiry等：select页只有一页数据，在搜索页搜出第二页的产品A并选中后点击cancel，回到select页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>select页没有A，但是右下角的OK显示1，且上拉出现第二页数据后，第二页中A要选中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留上拉加载，禁止下拉刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,6 +949,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -948,7 +1044,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,6 +1108,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1032,15 +1149,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1406,11 +1514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A46530-90F3-41DD-9564-216FCED4D102}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26:C27"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1455,12 +1563,12 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1475,13 +1583,13 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="K2" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1495,13 +1603,13 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="K3" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1513,13 +1621,13 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="K4" s="22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1531,13 +1639,13 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="K5" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1551,8 +1659,8 @@
     </row>
     <row r="7" spans="1:11" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1566,8 +1674,8 @@
     </row>
     <row r="8" spans="1:11" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1581,8 +1689,8 @@
     </row>
     <row r="9" spans="1:11" ht="78" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1596,8 +1704,8 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -1613,8 +1721,8 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="13" t="s">
         <v>27</v>
       </c>
@@ -1628,8 +1736,8 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="13" t="s">
         <v>28</v>
       </c>
@@ -1643,7 +1751,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1660,7 +1768,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
-      <c r="B14" s="33"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="13" t="s">
         <v>11</v>
       </c>
@@ -1675,8 +1783,8 @@
     </row>
     <row r="15" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="13"/>
@@ -1690,8 +1798,8 @@
     </row>
     <row r="16" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1701,17 +1809,17 @@
     </row>
     <row r="17" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>81</v>
+      <c r="B17" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -1720,13 +1828,13 @@
     </row>
     <row r="18" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -1735,15 +1843,15 @@
     </row>
     <row r="19" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="29" t="s">
-        <v>160</v>
+      <c r="B19" s="30"/>
+      <c r="C19" s="36" t="s">
+        <v>154</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -1752,13 +1860,13 @@
     </row>
     <row r="20" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -1767,12 +1875,12 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="36" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>33</v>
@@ -1784,10 +1892,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>34</v>
@@ -1799,12 +1907,12 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="29" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="36" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>33</v>
@@ -1816,10 +1924,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>35</v>
@@ -1829,66 +1937,66 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="25" t="s">
-        <v>152</v>
+      <c r="B26" s="30"/>
+      <c r="C26" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>154</v>
+      <c r="B27" s="30"/>
+      <c r="C27" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>38</v>
+      <c r="B28" s="31"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -1896,48 +2004,52 @@
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="D30" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="29" t="s">
-        <v>42</v>
+      <c r="B31" s="30"/>
+      <c r="C31" s="36" t="s">
+        <v>39</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -1946,13 +2058,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
@@ -1961,15 +2073,15 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="13" t="s">
-        <v>46</v>
+      <c r="B33" s="30"/>
+      <c r="C33" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -1978,15 +2090,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -1995,15 +2105,15 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
-      <c r="B35" s="33"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="13" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -2012,15 +2122,15 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="29" t="s">
-        <v>65</v>
+      <c r="B36" s="30"/>
+      <c r="C36" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
@@ -2029,13 +2139,15 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="D37" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -2044,81 +2156,79 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="25" t="s">
-        <v>70</v>
+      <c r="B38" s="30"/>
+      <c r="C38" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="13" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="13" t="s">
-        <v>72</v>
+      <c r="B40" s="30"/>
+      <c r="C40" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="13" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="25" t="s">
-        <v>152</v>
+      <c r="B42" s="30"/>
+      <c r="C42" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -2126,80 +2236,98 @@
       <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-    </row>
-    <row r="44" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-    </row>
-    <row r="45" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>160</v>
+      </c>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>162</v>
+      </c>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
@@ -2337,26 +2465,60 @@
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
     </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I42" xr:uid="{AD879126-6C2B-49B9-8B13-A62EF7C6AC97}"/>
-  <mergeCells count="17">
-    <mergeCell ref="B17:B45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C38:C39"/>
+  <autoFilter ref="A1:I44" xr:uid="{AD879126-6C2B-49B9-8B13-A62EF7C6AC97}"/>
+  <mergeCells count="18">
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C29:C30"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B30:B48"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2412,22 +2574,22 @@
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>82</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2438,9 +2600,9 @@
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="31"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -2451,9 +2613,9 @@
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="31"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2464,11 +2626,11 @@
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="30" t="s">
-        <v>89</v>
+      <c r="D5" s="37" t="s">
+        <v>86</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2479,9 +2641,9 @@
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2492,9 +2654,9 @@
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="30"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2505,9 +2667,9 @@
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="30"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2518,9 +2680,9 @@
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="30"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2531,9 +2693,9 @@
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2544,11 +2706,11 @@
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="30" t="s">
-        <v>96</v>
+      <c r="D11" s="37" t="s">
+        <v>93</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -2559,9 +2721,9 @@
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="30"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -2572,9 +2734,9 @@
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="30"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2585,9 +2747,9 @@
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -2598,9 +2760,9 @@
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2611,9 +2773,9 @@
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -2624,11 +2786,11 @@
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="30" t="s">
-        <v>101</v>
+      <c r="D17" s="37" t="s">
+        <v>98</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -2639,9 +2801,9 @@
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="30"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -2652,9 +2814,9 @@
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="30"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -2665,9 +2827,9 @@
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="30"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -2678,9 +2840,9 @@
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="30"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -2691,9 +2853,9 @@
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -2705,10 +2867,10 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2720,10 +2882,10 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2736,7 +2898,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2749,7 +2911,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2761,10 +2923,10 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2777,7 +2939,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2790,7 +2952,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2803,7 +2965,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2815,10 +2977,10 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2830,7 +2992,7 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="6"/>
@@ -2877,89 +3039,89 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="D6" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="D7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="D8" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="138" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3016,20 +3178,20 @@
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
